--- a/src/controllers/uploads/claim_report.xlsx
+++ b/src/controllers/uploads/claim_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>Claim Number</t>
   </si>
@@ -58,40 +58,94 @@
     <t>Updated At</t>
   </si>
   <si>
-    <t>2023-07-19</t>
-  </si>
-  <si>
-    <t>William Doe</t>
-  </si>
-  <si>
-    <t>757575757</t>
+    <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>undefined undefined</t>
   </si>
   <si>
     <t>pending</t>
   </si>
   <si>
-    <t>Admission of Claim</t>
+    <t>Inpatient Claim ID: CLAIM-1697384378320-726 for Member ID: 263064  MIDI FAMILY policy</t>
+  </si>
+  <si>
+    <t>Inpatient Claim</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>ac2cb04e-9ffa-410e-b120-45034ddfa76a</t>
+  </si>
+  <si>
+    <t>413d7882-25b3-4ce8-9269-d56214a7c281</t>
+  </si>
+  <si>
+    <t>Inpatient Claim ID: CLAIM-1697381702466-1864 for Member ID: 263064  MIDI FAMILY policy</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>Inpatient Claim ID: CLAIM-1696606634034-7913 for Member ID: 222222  MINI FAMILY policy</t>
+  </si>
+  <si>
+    <t>22c531da-73ba-43dc-8198-b6b380888d58</t>
+  </si>
+  <si>
+    <t>98f986a9-23a5-4cbe-aae8-a2432ec739d6</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>Admission of Death Claim Claim: CLAIM-1696454834312-5063 for Member ID: 215979  MINI OTHERS policy</t>
+  </si>
+  <si>
+    <t>Death Claim</t>
+  </si>
+  <si>
+    <t>de69e5a6-6cd2-4944-aec3-534797791510</t>
+  </si>
+  <si>
+    <t>Admission of Inpatient Claim Claim: CLAIM-1696454769242-2065 for Member ID: 215979  MINI OTHERS policy</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>Inpatient Claim ID: CLAIM-1696857495217-9727 for Member ID: 338856  BIGGIE SELF policy</t>
+  </si>
+  <si>
+    <t>a4a9f824-f322-4967-9643-a4c3b2d2746b</t>
+  </si>
+  <si>
+    <t>2d1225d9-37c7-41c5-a3ec-c1c6b75327be</t>
+  </si>
+  <si>
+    <t>Inpatient Claim ID: CLAIM-1697375560001-4265 for Member ID: 815394  MIDI SELF policy</t>
+  </si>
+  <si>
+    <t>06bdbe2a-6496-4b91-b27e-f693f5ec781d</t>
+  </si>
+  <si>
+    <t>bd27fdb5-2ef7-4eda-ad19-db6d6696b0b2</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>Admission of Claim: CLAIM-1694776489070-197 for Member ID: 523777  SILVER SELF policy</t>
   </si>
   <si>
     <t>medical claim</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>fba8d3c4-e281-4425-af84-5ca84f59ad0b</t>
-  </si>
-  <si>
-    <t>93ddd486-c44e-455d-b066-b8e40c1dd191</t>
-  </si>
-  <si>
-    <t>Dickens Juma</t>
-  </si>
-  <si>
-    <t>756255986</t>
-  </si>
-  <si>
-    <t>1d671b41-bad7-4f79-8173-fe2ceabdd6d0</t>
+    <t>0aa1a3d7-61b3-4935-8edf-001726ca66d0</t>
+  </si>
+  <si>
+    <t>856fd2f3-a5f1-40f5-95ec-9f928a6e4ad1</t>
   </si>
 </sst>
 </file>
@@ -468,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="15" width="20" customWidth="1"/>
@@ -521,36 +575,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>26</v>
+      </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>3000000</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
-        <v>1500000</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -562,36 +616,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>3000000</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -601,6 +655,249 @@
       </c>
       <c r="O3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>5000000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>1500000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>5000000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>3000000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>3000000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
